--- a/r_list_3.xlsx
+++ b/r_list_3.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B102"/>
+  <dimension ref="A1:B103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1259,7 +1259,15 @@
         <v>45965</v>
       </c>
       <c r="B102" t="n">
-        <v>0</v>
+        <v>513700</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>45966</v>
+      </c>
+      <c r="B103" t="n">
+        <v>518529</v>
       </c>
     </row>
   </sheetData>
@@ -1273,7 +1281,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B102"/>
+  <dimension ref="A1:B103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2098,7 +2106,15 @@
         <v>45965</v>
       </c>
       <c r="B102" t="n">
-        <v>0</v>
+        <v>372983</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>45966</v>
+      </c>
+      <c r="B103" t="n">
+        <v>370671</v>
       </c>
     </row>
   </sheetData>
@@ -2112,7 +2128,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B102"/>
+  <dimension ref="A1:B103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2937,7 +2953,15 @@
         <v>45965</v>
       </c>
       <c r="B102" t="n">
-        <v>0</v>
+        <v>170442</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>45966</v>
+      </c>
+      <c r="B103" t="n">
+        <v>164224</v>
       </c>
     </row>
   </sheetData>
@@ -2951,7 +2975,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B102"/>
+  <dimension ref="A1:B103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3776,7 +3800,15 @@
         <v>45965</v>
       </c>
       <c r="B102" t="n">
-        <v>0</v>
+        <v>249792</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>45966</v>
+      </c>
+      <c r="B103" t="n">
+        <v>242799</v>
       </c>
     </row>
   </sheetData>
@@ -3790,7 +3822,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B102"/>
+  <dimension ref="A1:B103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4615,7 +4647,15 @@
         <v>45965</v>
       </c>
       <c r="B102" t="n">
-        <v>0</v>
+        <v>595164</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>45966</v>
+      </c>
+      <c r="B103" t="n">
+        <v>573768</v>
       </c>
     </row>
   </sheetData>
@@ -4629,7 +4669,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B102"/>
+  <dimension ref="A1:B103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5454,7 +5494,15 @@
         <v>45965</v>
       </c>
       <c r="B102" t="n">
-        <v>0</v>
+        <v>62696</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>45966</v>
+      </c>
+      <c r="B103" t="n">
+        <v>60869</v>
       </c>
     </row>
   </sheetData>

--- a/r_list_3.xlsx
+++ b/r_list_3.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B103"/>
+  <dimension ref="A1:B105"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1270,6 +1270,22 @@
         <v>518529</v>
       </c>
     </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>45967</v>
+      </c>
+      <c r="B104" t="n">
+        <v>517214</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>45968</v>
+      </c>
+      <c r="B105" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -1281,7 +1297,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B103"/>
+  <dimension ref="A1:B105"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2117,6 +2133,22 @@
         <v>370671</v>
       </c>
     </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>45967</v>
+      </c>
+      <c r="B104" t="n">
+        <v>370406</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>45968</v>
+      </c>
+      <c r="B105" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -2128,7 +2160,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B103"/>
+  <dimension ref="A1:B105"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2964,6 +2996,22 @@
         <v>164224</v>
       </c>
     </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>45967</v>
+      </c>
+      <c r="B104" t="n">
+        <v>157773</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>45968</v>
+      </c>
+      <c r="B105" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -2975,7 +3023,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B103"/>
+  <dimension ref="A1:B105"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3811,6 +3859,22 @@
         <v>242799</v>
       </c>
     </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>45967</v>
+      </c>
+      <c r="B104" t="n">
+        <v>240284</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>45968</v>
+      </c>
+      <c r="B105" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -3822,7 +3886,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B103"/>
+  <dimension ref="A1:B105"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4658,6 +4722,22 @@
         <v>573768</v>
       </c>
     </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>45967</v>
+      </c>
+      <c r="B104" t="n">
+        <v>531916</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>45968</v>
+      </c>
+      <c r="B105" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -4669,7 +4749,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B103"/>
+  <dimension ref="A1:B105"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5505,6 +5585,22 @@
         <v>60869</v>
       </c>
     </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>45967</v>
+      </c>
+      <c r="B104" t="n">
+        <v>55702</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>45968</v>
+      </c>
+      <c r="B105" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/r_list_3.xlsx
+++ b/r_list_3.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B105"/>
+  <dimension ref="A1:B110"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1283,7 +1283,47 @@
         <v>45968</v>
       </c>
       <c r="B105" t="n">
-        <v>0</v>
+        <v>529466</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>45971</v>
+      </c>
+      <c r="B106" t="n">
+        <v>535379</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>45972</v>
+      </c>
+      <c r="B107" t="n">
+        <v>527712</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>45973</v>
+      </c>
+      <c r="B108" t="n">
+        <v>548215</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>45974</v>
+      </c>
+      <c r="B109" t="n">
+        <v>544195</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>45975</v>
+      </c>
+      <c r="B110" t="n">
+        <v>527844</v>
       </c>
     </row>
   </sheetData>
@@ -1297,7 +1337,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B105"/>
+  <dimension ref="A1:B110"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2146,7 +2186,47 @@
         <v>45968</v>
       </c>
       <c r="B105" t="n">
-        <v>0</v>
+        <v>393292</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>45971</v>
+      </c>
+      <c r="B106" t="n">
+        <v>389758</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>45972</v>
+      </c>
+      <c r="B107" t="n">
+        <v>374162</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>45973</v>
+      </c>
+      <c r="B108" t="n">
+        <v>377341</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>45974</v>
+      </c>
+      <c r="B109" t="n">
+        <v>379630</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>45975</v>
+      </c>
+      <c r="B110" t="n">
+        <v>346612</v>
       </c>
     </row>
   </sheetData>
@@ -2160,7 +2240,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B105"/>
+  <dimension ref="A1:B110"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3009,7 +3089,47 @@
         <v>45968</v>
       </c>
       <c r="B105" t="n">
-        <v>0</v>
+        <v>154622</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>45971</v>
+      </c>
+      <c r="B106" t="n">
+        <v>147371</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>45972</v>
+      </c>
+      <c r="B107" t="n">
+        <v>158954</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>45973</v>
+      </c>
+      <c r="B108" t="n">
+        <v>165740</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>45974</v>
+      </c>
+      <c r="B109" t="n">
+        <v>166243</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>45975</v>
+      </c>
+      <c r="B110" t="n">
+        <v>155569</v>
       </c>
     </row>
   </sheetData>
@@ -3023,7 +3143,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B105"/>
+  <dimension ref="A1:B110"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3872,7 +3992,47 @@
         <v>45968</v>
       </c>
       <c r="B105" t="n">
-        <v>0</v>
+        <v>237581</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>45971</v>
+      </c>
+      <c r="B106" t="n">
+        <v>233470</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>45972</v>
+      </c>
+      <c r="B107" t="n">
+        <v>196869</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>45973</v>
+      </c>
+      <c r="B108" t="n">
+        <v>203749</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>45974</v>
+      </c>
+      <c r="B109" t="n">
+        <v>213660</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>45975</v>
+      </c>
+      <c r="B110" t="n">
+        <v>209993</v>
       </c>
     </row>
   </sheetData>
@@ -3886,7 +4046,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B105"/>
+  <dimension ref="A1:B110"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4735,7 +4895,47 @@
         <v>45968</v>
       </c>
       <c r="B105" t="n">
-        <v>0</v>
+        <v>558374</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>45971</v>
+      </c>
+      <c r="B106" t="n">
+        <v>550880</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>45972</v>
+      </c>
+      <c r="B107" t="n">
+        <v>543657</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>45973</v>
+      </c>
+      <c r="B108" t="n">
+        <v>528352</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>45974</v>
+      </c>
+      <c r="B109" t="n">
+        <v>533843</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>45975</v>
+      </c>
+      <c r="B110" t="n">
+        <v>544058</v>
       </c>
     </row>
   </sheetData>
@@ -4749,7 +4949,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B105"/>
+  <dimension ref="A1:B110"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5598,7 +5798,47 @@
         <v>45968</v>
       </c>
       <c r="B105" t="n">
-        <v>0</v>
+        <v>56557</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>45971</v>
+      </c>
+      <c r="B106" t="n">
+        <v>58098</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>45972</v>
+      </c>
+      <c r="B107" t="n">
+        <v>60981</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>45973</v>
+      </c>
+      <c r="B108" t="n">
+        <v>67324</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>45974</v>
+      </c>
+      <c r="B109" t="n">
+        <v>68728</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>45975</v>
+      </c>
+      <c r="B110" t="n">
+        <v>69303</v>
       </c>
     </row>
   </sheetData>

--- a/r_list_3.xlsx
+++ b/r_list_3.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B110"/>
+  <dimension ref="A1:B111"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1326,6 +1326,14 @@
         <v>527844</v>
       </c>
     </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>45978</v>
+      </c>
+      <c r="B111" t="n">
+        <v>512429</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -1337,7 +1345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B110"/>
+  <dimension ref="A1:B111"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2229,6 +2237,14 @@
         <v>346612</v>
       </c>
     </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>45978</v>
+      </c>
+      <c r="B111" t="n">
+        <v>346155</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -2240,7 +2256,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B110"/>
+  <dimension ref="A1:B111"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3132,6 +3148,14 @@
         <v>155569</v>
       </c>
     </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>45978</v>
+      </c>
+      <c r="B111" t="n">
+        <v>158341</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -3143,7 +3167,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B110"/>
+  <dimension ref="A1:B111"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4035,6 +4059,14 @@
         <v>209993</v>
       </c>
     </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>45978</v>
+      </c>
+      <c r="B111" t="n">
+        <v>209909</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -4046,7 +4078,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B110"/>
+  <dimension ref="A1:B111"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4938,6 +4970,14 @@
         <v>544058</v>
       </c>
     </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>45978</v>
+      </c>
+      <c r="B111" t="n">
+        <v>557490</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -4949,7 +4989,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B110"/>
+  <dimension ref="A1:B111"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5841,6 +5881,14 @@
         <v>69303</v>
       </c>
     </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>45978</v>
+      </c>
+      <c r="B111" t="n">
+        <v>70064</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/r_list_3.xlsx
+++ b/r_list_3.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B111"/>
+  <dimension ref="A1:B112"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1334,6 +1334,14 @@
         <v>512429</v>
       </c>
     </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>45979</v>
+      </c>
+      <c r="B112" t="n">
+        <v>494771</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -1345,7 +1353,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B111"/>
+  <dimension ref="A1:B112"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2245,6 +2253,14 @@
         <v>346155</v>
       </c>
     </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>45979</v>
+      </c>
+      <c r="B112" t="n">
+        <v>333222</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -2256,7 +2272,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B111"/>
+  <dimension ref="A1:B112"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3156,6 +3172,14 @@
         <v>158341</v>
       </c>
     </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>45979</v>
+      </c>
+      <c r="B112" t="n">
+        <v>153930</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -3167,7 +3191,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B111"/>
+  <dimension ref="A1:B112"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4067,6 +4091,14 @@
         <v>209909</v>
       </c>
     </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>45979</v>
+      </c>
+      <c r="B112" t="n">
+        <v>205683</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -4078,7 +4110,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B111"/>
+  <dimension ref="A1:B112"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4978,6 +5010,14 @@
         <v>557490</v>
       </c>
     </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>45979</v>
+      </c>
+      <c r="B112" t="n">
+        <v>562453</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -4989,7 +5029,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B111"/>
+  <dimension ref="A1:B112"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5889,6 +5929,14 @@
         <v>70064</v>
       </c>
     </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>45979</v>
+      </c>
+      <c r="B112" t="n">
+        <v>71479</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/r_list_3.xlsx
+++ b/r_list_3.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B112"/>
+  <dimension ref="A1:B113"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1342,6 +1342,14 @@
         <v>494771</v>
       </c>
     </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>45980</v>
+      </c>
+      <c r="B113" t="n">
+        <v>503643</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -1353,7 +1361,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B112"/>
+  <dimension ref="A1:B113"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2261,6 +2269,14 @@
         <v>333222</v>
       </c>
     </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>45980</v>
+      </c>
+      <c r="B113" t="n">
+        <v>344663</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -2272,7 +2288,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B112"/>
+  <dimension ref="A1:B113"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3180,6 +3196,14 @@
         <v>153930</v>
       </c>
     </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>45980</v>
+      </c>
+      <c r="B113" t="n">
+        <v>157197</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -3191,7 +3215,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B112"/>
+  <dimension ref="A1:B113"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4099,6 +4123,14 @@
         <v>205683</v>
       </c>
     </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>45980</v>
+      </c>
+      <c r="B113" t="n">
+        <v>213191</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -4110,7 +4142,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B112"/>
+  <dimension ref="A1:B113"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5018,6 +5050,14 @@
         <v>562453</v>
       </c>
     </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>45980</v>
+      </c>
+      <c r="B113" t="n">
+        <v>594925</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -5029,7 +5069,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B112"/>
+  <dimension ref="A1:B113"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5937,6 +5977,14 @@
         <v>71479</v>
       </c>
     </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>45980</v>
+      </c>
+      <c r="B113" t="n">
+        <v>73155</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/r_list_3.xlsx
+++ b/r_list_3.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B113"/>
+  <dimension ref="A1:B114"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1350,6 +1350,14 @@
         <v>503643</v>
       </c>
     </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>45981</v>
+      </c>
+      <c r="B114" t="n">
+        <v>523614</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -1361,7 +1369,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B113"/>
+  <dimension ref="A1:B114"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2277,6 +2285,14 @@
         <v>344663</v>
       </c>
     </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>45981</v>
+      </c>
+      <c r="B114" t="n">
+        <v>356414</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -2288,7 +2304,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B113"/>
+  <dimension ref="A1:B114"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3204,6 +3220,14 @@
         <v>157197</v>
       </c>
     </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>45981</v>
+      </c>
+      <c r="B114" t="n">
+        <v>159773</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -3215,7 +3239,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B113"/>
+  <dimension ref="A1:B114"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4131,6 +4155,14 @@
         <v>213191</v>
       </c>
     </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>45981</v>
+      </c>
+      <c r="B114" t="n">
+        <v>219390</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -4142,7 +4174,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B113"/>
+  <dimension ref="A1:B114"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5058,6 +5090,14 @@
         <v>594925</v>
       </c>
     </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>45981</v>
+      </c>
+      <c r="B114" t="n">
+        <v>650370</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -5069,7 +5109,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B113"/>
+  <dimension ref="A1:B114"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5985,6 +6025,14 @@
         <v>73155</v>
       </c>
     </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>45981</v>
+      </c>
+      <c r="B114" t="n">
+        <v>74898</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/r_list_3.xlsx
+++ b/r_list_3.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B114"/>
+  <dimension ref="A1:B115"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1358,6 +1358,14 @@
         <v>523614</v>
       </c>
     </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>45982</v>
+      </c>
+      <c r="B115" t="n">
+        <v>523295</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -1369,7 +1377,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B114"/>
+  <dimension ref="A1:B115"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2293,6 +2301,14 @@
         <v>356414</v>
       </c>
     </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>45982</v>
+      </c>
+      <c r="B115" t="n">
+        <v>364065</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -2304,7 +2320,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B114"/>
+  <dimension ref="A1:B115"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3228,6 +3244,14 @@
         <v>159773</v>
       </c>
     </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>45982</v>
+      </c>
+      <c r="B115" t="n">
+        <v>161094</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -3239,7 +3263,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B114"/>
+  <dimension ref="A1:B115"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4163,6 +4187,14 @@
         <v>219390</v>
       </c>
     </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>45982</v>
+      </c>
+      <c r="B115" t="n">
+        <v>228656</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -4174,7 +4206,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B114"/>
+  <dimension ref="A1:B115"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5098,6 +5130,14 @@
         <v>650370</v>
       </c>
     </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>45982</v>
+      </c>
+      <c r="B115" t="n">
+        <v>657903</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -5109,7 +5149,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B114"/>
+  <dimension ref="A1:B115"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6033,6 +6073,14 @@
         <v>74898</v>
       </c>
     </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>45982</v>
+      </c>
+      <c r="B115" t="n">
+        <v>75698</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/r_list_3.xlsx
+++ b/r_list_3.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B115"/>
+  <dimension ref="A1:B117"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1366,6 +1366,22 @@
         <v>523295</v>
       </c>
     </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>45985</v>
+      </c>
+      <c r="B116" t="n">
+        <v>518214</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>45986</v>
+      </c>
+      <c r="B117" t="n">
+        <v>514718</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -1377,7 +1393,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B115"/>
+  <dimension ref="A1:B117"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2309,6 +2325,22 @@
         <v>364065</v>
       </c>
     </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>45985</v>
+      </c>
+      <c r="B116" t="n">
+        <v>350958</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>45986</v>
+      </c>
+      <c r="B117" t="n">
+        <v>329310</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -2320,7 +2352,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B115"/>
+  <dimension ref="A1:B117"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3252,6 +3284,22 @@
         <v>161094</v>
       </c>
     </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>45985</v>
+      </c>
+      <c r="B116" t="n">
+        <v>151151</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>45986</v>
+      </c>
+      <c r="B117" t="n">
+        <v>147616</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -3263,7 +3311,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B115"/>
+  <dimension ref="A1:B117"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4195,6 +4243,22 @@
         <v>228656</v>
       </c>
     </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>45985</v>
+      </c>
+      <c r="B116" t="n">
+        <v>214010</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>45986</v>
+      </c>
+      <c r="B117" t="n">
+        <v>217840</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -4206,7 +4270,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B115"/>
+  <dimension ref="A1:B117"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5138,6 +5202,22 @@
         <v>657903</v>
       </c>
     </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>45985</v>
+      </c>
+      <c r="B116" t="n">
+        <v>689087</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>45986</v>
+      </c>
+      <c r="B117" t="n">
+        <v>709767</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -5149,7 +5229,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B115"/>
+  <dimension ref="A1:B117"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6081,6 +6161,22 @@
         <v>75698</v>
       </c>
     </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>45985</v>
+      </c>
+      <c r="B116" t="n">
+        <v>75099</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>45986</v>
+      </c>
+      <c r="B117" t="n">
+        <v>83334</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/r_list_3.xlsx
+++ b/r_list_3.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B117"/>
+  <dimension ref="A1:B118"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1382,6 +1382,14 @@
         <v>514718</v>
       </c>
     </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>45987</v>
+      </c>
+      <c r="B118" t="n">
+        <v>522134</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -1393,7 +1401,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B117"/>
+  <dimension ref="A1:B118"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2341,6 +2349,14 @@
         <v>329310</v>
       </c>
     </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>45987</v>
+      </c>
+      <c r="B118" t="n">
+        <v>323835</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -2352,7 +2368,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B117"/>
+  <dimension ref="A1:B118"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3300,6 +3316,14 @@
         <v>147616</v>
       </c>
     </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>45987</v>
+      </c>
+      <c r="B118" t="n">
+        <v>155332</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -3311,7 +3335,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B117"/>
+  <dimension ref="A1:B118"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4259,6 +4283,14 @@
         <v>217840</v>
       </c>
     </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>45987</v>
+      </c>
+      <c r="B118" t="n">
+        <v>224738</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -4270,7 +4302,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B117"/>
+  <dimension ref="A1:B118"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5218,6 +5250,14 @@
         <v>709767</v>
       </c>
     </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>45987</v>
+      </c>
+      <c r="B118" t="n">
+        <v>715769</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -5229,7 +5269,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B117"/>
+  <dimension ref="A1:B118"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6177,6 +6217,14 @@
         <v>83334</v>
       </c>
     </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>45987</v>
+      </c>
+      <c r="B118" t="n">
+        <v>65937</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/r_list_3.xlsx
+++ b/r_list_3.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B118"/>
+  <dimension ref="A1:B120"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1390,6 +1390,22 @@
         <v>522134</v>
       </c>
     </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>45988</v>
+      </c>
+      <c r="B119" t="n">
+        <v>509882</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>45989</v>
+      </c>
+      <c r="B120" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -1401,7 +1417,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B118"/>
+  <dimension ref="A1:B120"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2357,6 +2373,22 @@
         <v>323835</v>
       </c>
     </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>45988</v>
+      </c>
+      <c r="B119" t="n">
+        <v>320040</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>45989</v>
+      </c>
+      <c r="B120" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -2368,7 +2400,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B118"/>
+  <dimension ref="A1:B120"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3324,6 +3356,22 @@
         <v>155332</v>
       </c>
     </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>45988</v>
+      </c>
+      <c r="B119" t="n">
+        <v>128780</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>45989</v>
+      </c>
+      <c r="B120" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -3335,7 +3383,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B118"/>
+  <dimension ref="A1:B120"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4291,6 +4339,22 @@
         <v>224738</v>
       </c>
     </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>45988</v>
+      </c>
+      <c r="B119" t="n">
+        <v>223176</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>45989</v>
+      </c>
+      <c r="B120" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -4302,7 +4366,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B118"/>
+  <dimension ref="A1:B120"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5258,6 +5322,22 @@
         <v>715769</v>
       </c>
     </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>45988</v>
+      </c>
+      <c r="B119" t="n">
+        <v>761281</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>45989</v>
+      </c>
+      <c r="B120" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -5269,7 +5349,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B118"/>
+  <dimension ref="A1:B120"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6225,6 +6305,22 @@
         <v>65937</v>
       </c>
     </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>45988</v>
+      </c>
+      <c r="B119" t="n">
+        <v>68956</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>45989</v>
+      </c>
+      <c r="B120" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/r_list_3.xlsx
+++ b/r_list_3.xlsx
@@ -1403,7 +1403,7 @@
         <v>45989</v>
       </c>
       <c r="B120" t="n">
-        <v>0</v>
+        <v>507806</v>
       </c>
     </row>
   </sheetData>
@@ -2386,7 +2386,7 @@
         <v>45989</v>
       </c>
       <c r="B120" t="n">
-        <v>0</v>
+        <v>318493</v>
       </c>
     </row>
   </sheetData>
@@ -3369,7 +3369,7 @@
         <v>45989</v>
       </c>
       <c r="B120" t="n">
-        <v>0</v>
+        <v>127932</v>
       </c>
     </row>
   </sheetData>
@@ -4352,7 +4352,7 @@
         <v>45989</v>
       </c>
       <c r="B120" t="n">
-        <v>0</v>
+        <v>225588</v>
       </c>
     </row>
   </sheetData>
@@ -5335,7 +5335,7 @@
         <v>45989</v>
       </c>
       <c r="B120" t="n">
-        <v>0</v>
+        <v>702428</v>
       </c>
     </row>
   </sheetData>
@@ -6318,7 +6318,7 @@
         <v>45989</v>
       </c>
       <c r="B120" t="n">
-        <v>0</v>
+        <v>71012</v>
       </c>
     </row>
   </sheetData>
